--- a/reportes/informe_estacionamiento_2023-11-28.xlsx
+++ b/reportes/informe_estacionamiento_2023-11-28.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Placa</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>SPS001</t>
+  </si>
+  <si>
+    <t>ANA001</t>
+  </si>
+  <si>
+    <t>MENSUAL</t>
+  </si>
+  <si>
+    <t>BCB001</t>
+  </si>
+  <si>
+    <t>GRATIS</t>
+  </si>
+  <si>
+    <t>ZZZ001</t>
+  </si>
+  <si>
+    <t>FIJ001</t>
+  </si>
+  <si>
+    <t>FIJ002</t>
+  </si>
+  <si>
+    <t>ECP001</t>
+  </si>
+  <si>
+    <t>LQS001</t>
   </si>
 </sst>
 </file>
@@ -381,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +445,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3"/>
+      <c r="C3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -427,7 +456,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
+      <c r="C4">
+        <v>8000</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -436,10 +467,131 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5"/>
+      <c r="C5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
